--- a/01-Excel/2/Activities/04-Stu_GradeBook/Unsolved/GradeBook_Unsolved.xlsx
+++ b/01-Excel/2/Activities/04-Stu_GradeBook/Unsolved/GradeBook_Unsolved.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\1\Activities\08-Stu_GradeBook\Unsolved\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg\Desktop\GA Tech\GitHub\GT-ATL-DATA-PT-09-2020-U-C-2\01-Excel\2\Activities\04-Stu_GradeBook\Unsolved\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -499,7 +499,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H2" sqref="H2:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +551,18 @@
       <c r="E2" s="2">
         <v>56</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2">
+        <f>ROUND(AVERAGE(B2:E2), 0)</f>
+        <v>79</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(F2&gt;=60,"PASS"," FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="H2" t="str">
+        <f>IF(F2&gt;=90,"A",IF(F2&gt;=80,"B",IF(F2&gt;70,"C",IF(F2&gt;=60,"D",IF(F2&lt;60,"F")))))</f>
+        <v>C</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -569,7 +580,18 @@
       <c r="E3" s="2">
         <v>95</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3">
+        <f t="shared" ref="F3:F25" si="0">ROUND(AVERAGE(B3:E3), 0)</f>
+        <v>74</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G25" si="1">IF(F3&gt;=60,"PASS"," FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H25" si="2">IF(F3&gt;=90,"A",IF(F3&gt;=80,"B",IF(F3&gt;70,"C",IF(F3&gt;=60,"D",IF(F3&lt;60,"F")))))</f>
+        <v>C</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -587,7 +609,18 @@
       <c r="E4" s="2">
         <v>87</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -605,7 +638,18 @@
       <c r="E5" s="2">
         <v>63</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> FAIL</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -623,7 +667,18 @@
       <c r="E6" s="2">
         <v>85</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -641,7 +696,18 @@
       <c r="E7" s="2">
         <v>55</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -659,7 +725,18 @@
       <c r="E8" s="2">
         <v>83</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -677,7 +754,18 @@
       <c r="E9" s="2">
         <v>43</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> FAIL</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -695,7 +783,18 @@
       <c r="E10" s="2">
         <v>95</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -713,7 +812,18 @@
       <c r="E11" s="2">
         <v>47</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -731,7 +841,18 @@
       <c r="E12" s="2">
         <v>55</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> FAIL</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -749,7 +870,18 @@
       <c r="E13" s="2">
         <v>46</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -767,7 +899,18 @@
       <c r="E14" s="2">
         <v>52</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> FAIL</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -785,7 +928,18 @@
       <c r="E15" s="2">
         <v>57</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -803,9 +957,20 @@
       <c r="E16" s="2">
         <v>73</v>
       </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -821,9 +986,20 @@
       <c r="E17" s="2">
         <v>53</v>
       </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -839,9 +1015,20 @@
       <c r="E18" s="2">
         <v>97</v>
       </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -857,9 +1044,20 @@
       <c r="E19" s="2">
         <v>89</v>
       </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -875,9 +1073,20 @@
       <c r="E20" s="2">
         <v>82</v>
       </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -893,9 +1102,20 @@
       <c r="E21" s="2">
         <v>87</v>
       </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -911,9 +1131,20 @@
       <c r="E22" s="2">
         <v>100</v>
       </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -929,9 +1160,20 @@
       <c r="E23" s="2">
         <v>48</v>
       </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> FAIL</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -947,9 +1189,20 @@
       <c r="E24" s="2">
         <v>55</v>
       </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> FAIL</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -965,7 +1218,18 @@
       <c r="E25" s="2">
         <v>53</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
